--- a/Gantt_chart.xlsx
+++ b/Gantt_chart.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd74915eb265310/Teaching/1810ICT/Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelchris/Desktop/STWS2/7810ICT-2022-Assignment-Liangxian-Rafael/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EE96D6-650E-AA49-87A7-B57611E93304}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="9520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
+    <sheet name="Gantt Chart" sheetId="3" r:id="rId1"/>
+    <sheet name="Project Planner" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$E1&gt;0))*PeriodInPlan</definedName>
@@ -23,11 +25,17 @@
     <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>PERIODS</t>
   </si>
@@ -259,12 +267,160 @@
   <si>
     <t>Project Title</t>
   </si>
+  <si>
+    <t>Final Project Submission</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Development</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement Acceptance Testing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Testing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Implement</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Part A Submission</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design User Interface</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define System Components</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop Use Case</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define Software Requirements</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define User Requirements</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define Requirement</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop System Vision</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Design </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divide Member’s Task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop Gantt Chart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity Definition and Estimation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define Work Breakdown Structure</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define Project Scope</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define Project Background</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop Project Plan</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluate Project Instruction and Guidelines</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concept and Planning</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task Description</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -364,6 +520,88 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -408,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -493,8 +731,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,8 +846,15 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,42 +921,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -666,148 +975,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="19"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="19" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="19" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="19" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="19" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="12" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+  <cellStyles count="22">
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 3 2" xfId="21" xr:uid="{5616B405-2191-244A-BFE2-AB81D6F3565B}"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="19" xr:uid="{9230F00B-4D01-2E4A-87BA-959C76BAAB70}"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="完成百分比" xfId="20" xr:uid="{8E00903E-96B5-714F-B538-F6C88D633C8A}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -824,15 +1129,6 @@
         <bottom style="thin">
           <color theme="7"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -961,6 +1257,1312 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2202670156946562"/>
+          <c:y val="9.7495715928070992E-2"/>
+          <c:w val="0.71121994476470318"/>
+          <c:h val="0.90094636432574815"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Chart'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Gantt Chart'!$G$6:$G$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="24"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.5499999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.25</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.60000000000000009</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="127000" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gantt Chart'!$B$6:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Concept and Planning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Evaluate Project Instruction and Guidelines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Develop Project Plan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Define Project Background</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Define Project Scope</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Define Work Breakdown Structure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Activity Definition and Estimation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Develop Gantt Chart</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Divide Member’s Task</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Software Design </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Develop System Vision</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Define Requirement</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Define User Requirements</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Define Software Requirements</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Develop Use Case</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Define System Components</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Design User Interface</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Project Part A Submission</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Software Implement</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Software Testing</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unit Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Requirement Acceptance Testing</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Software Development</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Final Project Submission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gantt Chart'!$D$6:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44794</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44813</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-870C-8B45-AB21-02491E74CE5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Chart'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gantt Chart'!$B$6:$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Concept and Planning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Evaluate Project Instruction and Guidelines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Develop Project Plan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Define Project Background</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Define Project Scope</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Define Work Breakdown Structure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Activity Definition and Estimation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Develop Gantt Chart</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Divide Member’s Task</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Software Design </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Develop System Vision</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Define Requirement</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Define User Requirements</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Define Software Requirements</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Develop Use Case</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Define System Components</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Design User Interface</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Project Part A Submission</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Software Implement</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Software Testing</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Unit Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Requirement Acceptance Testing</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Software Development</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Final Project Submission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gantt Chart'!$C$6:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-870C-8B45-AB21-02491E74CE5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="836304992"/>
+        <c:axId val="764506512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="836304992"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="764506512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="764506512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="44848"/>
+          <c:min val="44774"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836304992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="18"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75125023931961132"/>
+          <c:y val="0.53633044836337607"/>
+          <c:w val="0.16940078960550181"/>
+          <c:h val="9.2975857356673408E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC88F6B1-7697-DD41-9096-0B39FF0F237D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,31 +2791,3231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C8F3E0-82B8-7E4A-85BC-FEA8C6225241}">
+  <dimension ref="A3:U291"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" style="40"/>
+    <col min="2" max="2" width="44.33203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11" style="40"/>
+    <col min="4" max="4" width="12" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="0.1640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A5" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="79"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="69">
+        <v>1</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="67">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66">
+        <v>44774</v>
+      </c>
+      <c r="E6" s="66">
+        <f>D6+C6-1</f>
+        <v>44775</v>
+      </c>
+      <c r="F6" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="63">
+        <f>C6*F6</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="69">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="67">
+        <v>2</v>
+      </c>
+      <c r="D7" s="66">
+        <v>44776</v>
+      </c>
+      <c r="E7" s="66">
+        <f>D7+C7-1</f>
+        <v>44777</v>
+      </c>
+      <c r="F7" s="65">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="63">
+        <f>C7*F7</f>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="67">
+        <v>2</v>
+      </c>
+      <c r="D8" s="66">
+        <v>44779</v>
+      </c>
+      <c r="E8" s="66">
+        <f>D8+C8-1</f>
+        <v>44780</v>
+      </c>
+      <c r="F8" s="65">
+        <v>1</v>
+      </c>
+      <c r="G8" s="63">
+        <f>C8*F8</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="67">
+        <v>2</v>
+      </c>
+      <c r="D9" s="66">
+        <v>44781</v>
+      </c>
+      <c r="E9" s="66">
+        <f>D9+C9-1</f>
+        <v>44782</v>
+      </c>
+      <c r="F9" s="65">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="63">
+        <f>C9*F9</f>
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="67">
+        <v>2</v>
+      </c>
+      <c r="D10" s="66">
+        <v>44783</v>
+      </c>
+      <c r="E10" s="66">
+        <f>D10+C10-1</f>
+        <v>44784</v>
+      </c>
+      <c r="F10" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="63">
+        <f>C10*F10</f>
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="67">
+        <v>3</v>
+      </c>
+      <c r="D11" s="66">
+        <v>44785</v>
+      </c>
+      <c r="E11" s="66">
+        <f>D11+C11-1</f>
+        <v>44787</v>
+      </c>
+      <c r="F11" s="65">
+        <v>0.85</v>
+      </c>
+      <c r="G11" s="63">
+        <f>C11*F11</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="67">
+        <v>2</v>
+      </c>
+      <c r="D12" s="66">
+        <v>44788</v>
+      </c>
+      <c r="E12" s="66">
+        <f>D12+C12-1</f>
+        <v>44789</v>
+      </c>
+      <c r="F12" s="65">
+        <v>0.85</v>
+      </c>
+      <c r="G12" s="63">
+        <f>C12*F12</f>
+        <v>1.7</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="67">
+        <v>3</v>
+      </c>
+      <c r="D13" s="66">
+        <v>44790</v>
+      </c>
+      <c r="E13" s="66">
+        <f>D13+C13-1</f>
+        <v>44792</v>
+      </c>
+      <c r="F13" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="63">
+        <f>C13*F13</f>
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="69">
+        <v>1.3</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="67">
+        <v>1</v>
+      </c>
+      <c r="D14" s="66">
+        <v>44793</v>
+      </c>
+      <c r="E14" s="66">
+        <f>D14+C14-1</f>
+        <v>44793</v>
+      </c>
+      <c r="F14" s="65">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="63">
+        <f>C14*F14</f>
+        <v>0.6</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="69">
+        <v>2</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="67">
+        <v>3</v>
+      </c>
+      <c r="D15" s="66">
+        <v>44794</v>
+      </c>
+      <c r="E15" s="66">
+        <f>D15+C15-1</f>
+        <v>44796</v>
+      </c>
+      <c r="F15" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="63">
+        <f>C15*F15</f>
+        <v>2.25</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="69">
+        <v>2.1</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="67">
+        <v>2</v>
+      </c>
+      <c r="D16" s="66">
+        <v>44797</v>
+      </c>
+      <c r="E16" s="66">
+        <f>D16+C16-1</f>
+        <v>44798</v>
+      </c>
+      <c r="F16" s="65">
+        <v>1</v>
+      </c>
+      <c r="G16" s="63">
+        <f>C16*F16</f>
+        <v>2</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="69">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="67">
+        <v>2</v>
+      </c>
+      <c r="D17" s="66">
+        <v>44799</v>
+      </c>
+      <c r="E17" s="66">
+        <f>D17+C17-1</f>
+        <v>44800</v>
+      </c>
+      <c r="F17" s="65">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="63">
+        <f>C17*F17</f>
+        <v>1.2</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="67">
+        <v>2</v>
+      </c>
+      <c r="D18" s="66">
+        <v>44801</v>
+      </c>
+      <c r="E18" s="66">
+        <f>D18+C18-1</f>
+        <v>44802</v>
+      </c>
+      <c r="F18" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="63">
+        <f>C18*F18</f>
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="73">
+        <v>2</v>
+      </c>
+      <c r="D19" s="72">
+        <v>44803</v>
+      </c>
+      <c r="E19" s="66">
+        <f>D19+C19-1</f>
+        <v>44804</v>
+      </c>
+      <c r="F19" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="63">
+        <f>C19*F19</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="67">
+        <v>5</v>
+      </c>
+      <c r="D20" s="66">
+        <v>44805</v>
+      </c>
+      <c r="E20" s="66">
+        <f>D20+C20-1</f>
+        <v>44809</v>
+      </c>
+      <c r="F20" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="63">
+        <f>C20*F20</f>
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="69">
+        <v>2.4</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="67">
+        <v>3</v>
+      </c>
+      <c r="D21" s="66">
+        <v>44810</v>
+      </c>
+      <c r="E21" s="66">
+        <f>D21+C21-1</f>
+        <v>44812</v>
+      </c>
+      <c r="F21" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="63">
+        <f>C21*F21</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="69">
+        <v>2.5</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="67">
+        <v>2</v>
+      </c>
+      <c r="D22" s="66">
+        <v>44813</v>
+      </c>
+      <c r="E22" s="66">
+        <f>D22+C22-1</f>
+        <v>44814</v>
+      </c>
+      <c r="F22" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="63">
+        <f>C22*F22</f>
+        <v>0.6</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="69">
+        <v>2.6</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="67">
+        <v>1</v>
+      </c>
+      <c r="D23" s="66">
+        <v>44815</v>
+      </c>
+      <c r="E23" s="66">
+        <f>D23+C23-1</f>
+        <v>44815</v>
+      </c>
+      <c r="F23" s="65">
+        <v>1</v>
+      </c>
+      <c r="G23" s="63">
+        <f>C23*F23</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="69">
+        <v>3</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="67">
+        <v>7</v>
+      </c>
+      <c r="D24" s="66">
+        <v>44816</v>
+      </c>
+      <c r="E24" s="66">
+        <f>D24+C24-1</f>
+        <v>44822</v>
+      </c>
+      <c r="F24" s="65">
+        <v>0</v>
+      </c>
+      <c r="G24" s="63">
+        <f>C24*F24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="69">
+        <v>4</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="67">
+        <v>7</v>
+      </c>
+      <c r="D25" s="66">
+        <v>44823</v>
+      </c>
+      <c r="E25" s="66">
+        <f>D25+C25-1</f>
+        <v>44829</v>
+      </c>
+      <c r="F25" s="65">
+        <v>0</v>
+      </c>
+      <c r="G25" s="63">
+        <f>C25*F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="67">
+        <v>7</v>
+      </c>
+      <c r="D26" s="66">
+        <v>44830</v>
+      </c>
+      <c r="E26" s="66">
+        <f>D26+C26-1</f>
+        <v>44836</v>
+      </c>
+      <c r="F26" s="65">
+        <v>0</v>
+      </c>
+      <c r="G26" s="63">
+        <f>C26*F26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="69">
+        <v>4.2</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="67">
+        <v>4</v>
+      </c>
+      <c r="D27" s="66">
+        <v>44837</v>
+      </c>
+      <c r="E27" s="66">
+        <f>D27+C27-1</f>
+        <v>44840</v>
+      </c>
+      <c r="F27" s="65">
+        <v>0</v>
+      </c>
+      <c r="G27" s="63">
+        <f>C27*F27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="69">
+        <v>5</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="67">
+        <v>7</v>
+      </c>
+      <c r="D28" s="66">
+        <v>44841</v>
+      </c>
+      <c r="E28" s="66">
+        <f>D28+C28-1</f>
+        <v>44847</v>
+      </c>
+      <c r="F28" s="65">
+        <v>0</v>
+      </c>
+      <c r="G28" s="63">
+        <f>C28*F28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="69">
+        <v>6</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="67">
+        <v>1</v>
+      </c>
+      <c r="D29" s="66">
+        <v>44848</v>
+      </c>
+      <c r="E29" s="66">
+        <f>D29+C29-1</f>
+        <v>44848</v>
+      </c>
+      <c r="F29" s="65">
+        <v>0</v>
+      </c>
+      <c r="G29" s="63">
+        <f>C29*F29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+    </row>
+    <row r="30" spans="1:21" ht="17">
+      <c r="B30" s="51"/>
+      <c r="C30" s="50"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+    </row>
+    <row r="31" spans="1:21" ht="17">
+      <c r="A31" s="43"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="U31" s="63"/>
+    </row>
+    <row r="32" spans="1:21" ht="17">
+      <c r="B32" s="51"/>
+      <c r="D32" s="50"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="U32" s="63"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="43"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="U33" s="63"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="B34" s="51"/>
+      <c r="D34" s="50"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="43"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="B36" s="51"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="43"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="B38" s="51"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="43"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="B40" s="51"/>
+      <c r="C40" s="50"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="43"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="B42" s="51"/>
+      <c r="C42" s="50"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="43"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="B44" s="51"/>
+      <c r="C44" s="50"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="43"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="B46" s="51"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="43"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="B48" s="51"/>
+      <c r="C48" s="50"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="43"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" s="51"/>
+      <c r="D50" s="50"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="43"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="51"/>
+      <c r="D52" s="50"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="43"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="51"/>
+      <c r="C54" s="50"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="43"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="51"/>
+      <c r="C56" s="50"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="43"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="51"/>
+      <c r="C58" s="50"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="43"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="B60" s="51"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="43"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="51"/>
+      <c r="C62" s="50"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="43"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="51"/>
+      <c r="C64" s="50"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="43"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="B66" s="51"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="43"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" s="51"/>
+      <c r="C68" s="50"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="43"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="B70" s="51"/>
+      <c r="C70" s="50"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="43"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="B72" s="51"/>
+      <c r="C72" s="50"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="43"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" s="51"/>
+      <c r="C74" s="50"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="43"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="B76" s="51"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="43"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="B78" s="51"/>
+      <c r="C78" s="50"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="43"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" s="51"/>
+      <c r="C80" s="50"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="43"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="B82" s="51"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="43"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="B84" s="51"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="43"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="B86" s="51"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="43"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="B88" s="48"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="43"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="B90" s="48"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="43"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="B92" s="48"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="B93" s="48"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="B94" s="48"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="43"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="B96" s="48"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="43"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="B98" s="47"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="43"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="B100" s="47"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="43"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="B102" s="48"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="43"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="B104" s="48"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="43"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="B106" s="48"/>
+      <c r="E106" s="60"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="43"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="B108" s="48"/>
+      <c r="E108" s="60"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="45"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="43"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="B110" s="48"/>
+      <c r="E110" s="60"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="43"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="B112" s="48"/>
+      <c r="E112" s="60"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="43"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="B114" s="48"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="45"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="E116" s="60"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="45"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="43"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="E118" s="60"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="45"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="E120" s="60"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="45"/>
+      <c r="I120" s="45"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="E122" s="60"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="45"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="G124" s="46"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="45"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="G126" s="46"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="45"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="G128" s="46"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="45"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="43"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="42"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="G130" s="46"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="45"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="43"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="B132" s="48"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="45"/>
+      <c r="I132" s="45"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="43"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="B134" s="48"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="45"/>
+      <c r="I134" s="45"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="43"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="B136" s="48"/>
+      <c r="G136" s="46"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="43"/>
+      <c r="B137" s="59"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="B138" s="48"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="45"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="43"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43"/>
+      <c r="G139" s="42"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="B140" s="48"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="45"/>
+      <c r="I140" s="45"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="43"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="B142" s="48"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="45"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="43"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="B144" s="48"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="45"/>
+      <c r="I144" s="45"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="43"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="B146" s="47"/>
+      <c r="G146" s="46"/>
+      <c r="H146" s="45"/>
+      <c r="I146" s="45"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="43"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="B148" s="47"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="43"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="B150" s="47"/>
+      <c r="G150" s="46"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="45"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="43"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="41"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="B152" s="47"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="45"/>
+      <c r="I152" s="45"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="43"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="B154" s="47"/>
+      <c r="G154" s="46"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="45"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="43"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="43"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="B156" s="47"/>
+      <c r="C156" s="50"/>
+      <c r="G156" s="46"/>
+      <c r="H156" s="45"/>
+      <c r="I156" s="45"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="43"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="43"/>
+      <c r="E157" s="43"/>
+      <c r="F157" s="43"/>
+      <c r="G157" s="42"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="B158" s="47"/>
+      <c r="C158" s="50"/>
+      <c r="G158" s="46"/>
+      <c r="H158" s="45"/>
+      <c r="I158" s="45"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="43"/>
+      <c r="B159" s="44"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="42"/>
+      <c r="H159" s="41"/>
+      <c r="I159" s="41"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="B160" s="47"/>
+      <c r="C160" s="50"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="45"/>
+      <c r="I160" s="45"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="43"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="42"/>
+      <c r="H161" s="41"/>
+      <c r="I161" s="41"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="B162" s="47"/>
+      <c r="C162" s="50"/>
+      <c r="G162" s="46"/>
+      <c r="H162" s="45"/>
+      <c r="I162" s="45"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="43"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="43"/>
+      <c r="F163" s="43"/>
+      <c r="G163" s="42"/>
+      <c r="H163" s="41"/>
+      <c r="I163" s="41"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="B164" s="47"/>
+      <c r="C164" s="50"/>
+      <c r="G164" s="46"/>
+      <c r="H164" s="45"/>
+      <c r="I164" s="45"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="43"/>
+      <c r="B165" s="44"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="43"/>
+      <c r="F165" s="43"/>
+      <c r="G165" s="42"/>
+      <c r="H165" s="41"/>
+      <c r="I165" s="41"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="B166" s="47"/>
+      <c r="G166" s="46"/>
+      <c r="H166" s="45"/>
+      <c r="I166" s="45"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="43"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="43"/>
+      <c r="E167" s="43"/>
+      <c r="F167" s="43"/>
+      <c r="G167" s="42"/>
+      <c r="H167" s="41"/>
+      <c r="I167" s="41"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="B168" s="47"/>
+      <c r="C168" s="50"/>
+      <c r="G168" s="46"/>
+      <c r="H168" s="45"/>
+      <c r="I168" s="45"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="43"/>
+      <c r="B169" s="44"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="41"/>
+      <c r="I169" s="41"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="B170" s="47"/>
+      <c r="C170" s="50"/>
+      <c r="G170" s="46"/>
+      <c r="H170" s="45"/>
+      <c r="I170" s="45"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="43"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="43"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="41"/>
+      <c r="I171" s="41"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="B172" s="47"/>
+      <c r="C172" s="50"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="45"/>
+      <c r="I172" s="45"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="43"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="43"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="43"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="41"/>
+      <c r="I173" s="41"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="B174" s="47"/>
+      <c r="G174" s="46"/>
+      <c r="H174" s="45"/>
+      <c r="I174" s="45"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="43"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="41"/>
+      <c r="I175" s="41"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="B176" s="47"/>
+      <c r="C176" s="50"/>
+      <c r="G176" s="46"/>
+      <c r="H176" s="45"/>
+      <c r="I176" s="45"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="43"/>
+      <c r="B177" s="44"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="43"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="43"/>
+      <c r="G177" s="42"/>
+      <c r="H177" s="41"/>
+      <c r="I177" s="41"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="B178" s="47"/>
+      <c r="C178" s="50"/>
+      <c r="G178" s="46"/>
+      <c r="H178" s="45"/>
+      <c r="I178" s="45"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="43"/>
+      <c r="B179" s="44"/>
+      <c r="C179" s="43"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
+      <c r="G179" s="42"/>
+      <c r="H179" s="41"/>
+      <c r="I179" s="41"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="B180" s="47"/>
+      <c r="G180" s="46"/>
+      <c r="H180" s="45"/>
+      <c r="I180" s="45"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="43"/>
+      <c r="B181" s="44"/>
+      <c r="C181" s="43"/>
+      <c r="D181" s="43"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="42"/>
+      <c r="H181" s="41"/>
+      <c r="I181" s="41"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="B182" s="47"/>
+      <c r="G182" s="46"/>
+      <c r="H182" s="45"/>
+      <c r="I182" s="45"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="43"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="42"/>
+      <c r="H183" s="41"/>
+      <c r="I183" s="41"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="B184" s="47"/>
+      <c r="G184" s="46"/>
+      <c r="H184" s="45"/>
+      <c r="I184" s="45"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="43"/>
+      <c r="B185" s="44"/>
+      <c r="C185" s="43"/>
+      <c r="D185" s="43"/>
+      <c r="E185" s="43"/>
+      <c r="F185" s="43"/>
+      <c r="G185" s="42"/>
+      <c r="H185" s="41"/>
+      <c r="I185" s="41"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="B186" s="47"/>
+      <c r="G186" s="46"/>
+      <c r="H186" s="45"/>
+      <c r="I186" s="45"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="43"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="43"/>
+      <c r="D187" s="43"/>
+      <c r="E187" s="43"/>
+      <c r="F187" s="43"/>
+      <c r="G187" s="42"/>
+      <c r="H187" s="41"/>
+      <c r="I187" s="41"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="B188" s="47"/>
+      <c r="G188" s="46"/>
+      <c r="H188" s="45"/>
+      <c r="I188" s="45"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="43"/>
+      <c r="B189" s="44"/>
+      <c r="C189" s="43"/>
+      <c r="D189" s="43"/>
+      <c r="E189" s="43"/>
+      <c r="F189" s="43"/>
+      <c r="G189" s="42"/>
+      <c r="H189" s="41"/>
+      <c r="I189" s="41"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="B190" s="47"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="45"/>
+      <c r="I190" s="45"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="43"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="43"/>
+      <c r="D191" s="43"/>
+      <c r="E191" s="43"/>
+      <c r="F191" s="43"/>
+      <c r="G191" s="42"/>
+      <c r="H191" s="41"/>
+      <c r="I191" s="41"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="B192" s="47"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="45"/>
+      <c r="I192" s="45"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="B193" s="47"/>
+      <c r="G193" s="46"/>
+      <c r="H193" s="45"/>
+      <c r="I193" s="45"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="B194" s="47"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="45"/>
+      <c r="I194" s="45"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="43"/>
+      <c r="B195" s="49"/>
+      <c r="C195" s="43"/>
+      <c r="D195" s="43"/>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="42"/>
+      <c r="H195" s="41"/>
+      <c r="I195" s="41"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="B196" s="48"/>
+      <c r="G196" s="46"/>
+      <c r="H196" s="45"/>
+      <c r="I196" s="45"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="43"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="43"/>
+      <c r="D197" s="43"/>
+      <c r="E197" s="43"/>
+      <c r="F197" s="43"/>
+      <c r="G197" s="42"/>
+      <c r="H197" s="41"/>
+      <c r="I197" s="41"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="B198" s="47"/>
+      <c r="G198" s="46"/>
+      <c r="H198" s="45"/>
+      <c r="I198" s="45"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="43"/>
+      <c r="B199" s="44"/>
+      <c r="C199" s="43"/>
+      <c r="D199" s="43"/>
+      <c r="E199" s="43"/>
+      <c r="F199" s="43"/>
+      <c r="G199" s="42"/>
+      <c r="H199" s="41"/>
+      <c r="I199" s="41"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="B200" s="47"/>
+      <c r="G200" s="46"/>
+      <c r="H200" s="45"/>
+      <c r="I200" s="45"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="43"/>
+      <c r="B201" s="44"/>
+      <c r="C201" s="57"/>
+      <c r="D201" s="43"/>
+      <c r="E201" s="43"/>
+      <c r="F201" s="43"/>
+      <c r="G201" s="42"/>
+      <c r="H201" s="41"/>
+      <c r="I201" s="41"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="B202" s="47"/>
+      <c r="C202" s="50"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="45"/>
+      <c r="I202" s="45"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="43"/>
+      <c r="B203" s="44"/>
+      <c r="C203" s="57"/>
+      <c r="D203" s="43"/>
+      <c r="E203" s="43"/>
+      <c r="F203" s="43"/>
+      <c r="G203" s="42"/>
+      <c r="H203" s="41"/>
+      <c r="I203" s="41"/>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="B204" s="47"/>
+      <c r="C204" s="50"/>
+      <c r="G204" s="46"/>
+      <c r="H204" s="45"/>
+      <c r="I204" s="45"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="43"/>
+      <c r="B205" s="44"/>
+      <c r="C205" s="57"/>
+      <c r="D205" s="43"/>
+      <c r="E205" s="43"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="42"/>
+      <c r="H205" s="41"/>
+      <c r="I205" s="41"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="B206" s="47"/>
+      <c r="C206" s="50"/>
+      <c r="G206" s="46"/>
+      <c r="H206" s="45"/>
+      <c r="I206" s="45"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="43"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="43"/>
+      <c r="D207" s="43"/>
+      <c r="E207" s="43"/>
+      <c r="F207" s="43"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="41"/>
+      <c r="I207" s="41"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="B208" s="47"/>
+      <c r="G208" s="46"/>
+      <c r="H208" s="45"/>
+      <c r="I208" s="45"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="43"/>
+      <c r="B209" s="44"/>
+      <c r="C209" s="43"/>
+      <c r="D209" s="43"/>
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="42"/>
+      <c r="H209" s="41"/>
+      <c r="I209" s="41"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="B210" s="47"/>
+      <c r="G210" s="46"/>
+      <c r="H210" s="45"/>
+      <c r="I210" s="45"/>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="43"/>
+      <c r="B211" s="44"/>
+      <c r="C211" s="43"/>
+      <c r="D211" s="43"/>
+      <c r="E211" s="43"/>
+      <c r="F211" s="43"/>
+      <c r="G211" s="42"/>
+      <c r="H211" s="41"/>
+      <c r="I211" s="41"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="B212" s="47"/>
+      <c r="G212" s="46"/>
+      <c r="H212" s="45"/>
+      <c r="I212" s="45"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="43"/>
+      <c r="B213" s="44"/>
+      <c r="C213" s="43"/>
+      <c r="D213" s="43"/>
+      <c r="E213" s="43"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="42"/>
+      <c r="H213" s="41"/>
+      <c r="I213" s="41"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="B214" s="47"/>
+      <c r="G214" s="46"/>
+      <c r="H214" s="45"/>
+      <c r="I214" s="45"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="43"/>
+      <c r="B215" s="44"/>
+      <c r="C215" s="43"/>
+      <c r="D215" s="43"/>
+      <c r="E215" s="43"/>
+      <c r="F215" s="43"/>
+      <c r="G215" s="42"/>
+      <c r="H215" s="41"/>
+      <c r="I215" s="41"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="B216" s="47"/>
+      <c r="G216" s="46"/>
+      <c r="H216" s="45"/>
+      <c r="I216" s="45"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="43"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="43"/>
+      <c r="D217" s="43"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="43"/>
+      <c r="G217" s="42"/>
+      <c r="H217" s="41"/>
+      <c r="I217" s="41"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="B218" s="47"/>
+      <c r="G218" s="46"/>
+      <c r="H218" s="45"/>
+      <c r="I218" s="45"/>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="43"/>
+      <c r="B219" s="44"/>
+      <c r="C219" s="43"/>
+      <c r="D219" s="43"/>
+      <c r="E219" s="43"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="42"/>
+      <c r="H219" s="41"/>
+      <c r="I219" s="41"/>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="B220" s="47"/>
+      <c r="G220" s="46"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="45"/>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="43"/>
+      <c r="B221" s="44"/>
+      <c r="C221" s="43"/>
+      <c r="D221" s="43"/>
+      <c r="E221" s="43"/>
+      <c r="F221" s="43"/>
+      <c r="G221" s="42"/>
+      <c r="H221" s="41"/>
+      <c r="I221" s="41"/>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="B222" s="47"/>
+      <c r="G222" s="46"/>
+      <c r="H222" s="45"/>
+      <c r="I222" s="45"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="43"/>
+      <c r="B223" s="44"/>
+      <c r="C223" s="43"/>
+      <c r="D223" s="43"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="43"/>
+      <c r="G223" s="42"/>
+      <c r="H223" s="41"/>
+      <c r="I223" s="41"/>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="B224" s="47"/>
+      <c r="G224" s="46"/>
+      <c r="H224" s="45"/>
+      <c r="I224" s="45"/>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="43"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="43"/>
+      <c r="D225" s="43"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="42"/>
+      <c r="H225" s="41"/>
+      <c r="I225" s="41"/>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="B226" s="47"/>
+      <c r="G226" s="46"/>
+      <c r="H226" s="45"/>
+      <c r="I226" s="45"/>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="43"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="43"/>
+      <c r="D227" s="43"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="43"/>
+      <c r="G227" s="42"/>
+      <c r="H227" s="41"/>
+      <c r="I227" s="41"/>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="B228" s="47"/>
+      <c r="G228" s="46"/>
+      <c r="H228" s="45"/>
+      <c r="I228" s="45"/>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="43"/>
+      <c r="B229" s="44"/>
+      <c r="C229" s="43"/>
+      <c r="D229" s="43"/>
+      <c r="E229" s="43"/>
+      <c r="F229" s="43"/>
+      <c r="G229" s="42"/>
+      <c r="H229" s="41"/>
+      <c r="I229" s="41"/>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="B230" s="47"/>
+      <c r="G230" s="46"/>
+      <c r="H230" s="45"/>
+      <c r="I230" s="45"/>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="43"/>
+      <c r="B231" s="44"/>
+      <c r="C231" s="43"/>
+      <c r="D231" s="43"/>
+      <c r="E231" s="43"/>
+      <c r="F231" s="43"/>
+      <c r="G231" s="42"/>
+      <c r="H231" s="41"/>
+      <c r="I231" s="41"/>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="B232" s="47"/>
+      <c r="G232" s="46"/>
+      <c r="H232" s="45"/>
+      <c r="I232" s="45"/>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="43"/>
+      <c r="B233" s="44"/>
+      <c r="C233" s="43"/>
+      <c r="D233" s="43"/>
+      <c r="E233" s="43"/>
+      <c r="F233" s="43"/>
+      <c r="G233" s="42"/>
+      <c r="H233" s="41"/>
+      <c r="I233" s="41"/>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="B234" s="47"/>
+      <c r="G234" s="46"/>
+      <c r="H234" s="45"/>
+      <c r="I234" s="45"/>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="43"/>
+      <c r="B235" s="44"/>
+      <c r="C235" s="43"/>
+      <c r="D235" s="43"/>
+      <c r="E235" s="43"/>
+      <c r="F235" s="43"/>
+      <c r="G235" s="42"/>
+      <c r="H235" s="41"/>
+      <c r="I235" s="41"/>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="B236" s="47"/>
+      <c r="G236" s="46"/>
+      <c r="H236" s="45"/>
+      <c r="I236" s="45"/>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="43"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="43"/>
+      <c r="D237" s="43"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="42"/>
+      <c r="H237" s="41"/>
+      <c r="I237" s="41"/>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="B238" s="47"/>
+      <c r="G238" s="46"/>
+      <c r="H238" s="45"/>
+      <c r="I238" s="45"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="43"/>
+      <c r="B239" s="44"/>
+      <c r="C239" s="43"/>
+      <c r="D239" s="43"/>
+      <c r="E239" s="43"/>
+      <c r="F239" s="43"/>
+      <c r="G239" s="42"/>
+      <c r="H239" s="41"/>
+      <c r="I239" s="41"/>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="B240" s="47"/>
+      <c r="G240" s="46"/>
+      <c r="H240" s="45"/>
+      <c r="I240" s="45"/>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="43"/>
+      <c r="B241" s="44"/>
+      <c r="C241" s="57"/>
+      <c r="D241" s="43"/>
+      <c r="E241" s="43"/>
+      <c r="F241" s="43"/>
+      <c r="G241" s="42"/>
+      <c r="H241" s="41"/>
+      <c r="I241" s="41"/>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="B242" s="47"/>
+      <c r="C242" s="50"/>
+      <c r="G242" s="46"/>
+      <c r="H242" s="45"/>
+      <c r="I242" s="45"/>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="43"/>
+      <c r="B243" s="44"/>
+      <c r="C243" s="57"/>
+      <c r="D243" s="43"/>
+      <c r="E243" s="43"/>
+      <c r="F243" s="43"/>
+      <c r="G243" s="42"/>
+      <c r="H243" s="41"/>
+      <c r="I243" s="41"/>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="B244" s="47"/>
+      <c r="C244" s="50"/>
+      <c r="G244" s="46"/>
+      <c r="H244" s="45"/>
+      <c r="I244" s="45"/>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="B245" s="47"/>
+      <c r="C245" s="50"/>
+      <c r="G245" s="46"/>
+      <c r="H245" s="45"/>
+      <c r="I245" s="45"/>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="B246" s="47"/>
+      <c r="C246" s="50"/>
+      <c r="G246" s="46"/>
+      <c r="H246" s="45"/>
+      <c r="I246" s="45"/>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="43"/>
+      <c r="B247" s="49"/>
+      <c r="C247" s="43"/>
+      <c r="D247" s="43"/>
+      <c r="E247" s="43"/>
+      <c r="F247" s="43"/>
+      <c r="G247" s="42"/>
+      <c r="H247" s="41"/>
+      <c r="I247" s="41"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="B248" s="48"/>
+      <c r="G248" s="46"/>
+      <c r="H248" s="45"/>
+      <c r="I248" s="45"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="43"/>
+      <c r="B249" s="58"/>
+      <c r="C249" s="43"/>
+      <c r="D249" s="43"/>
+      <c r="E249" s="43"/>
+      <c r="F249" s="43"/>
+      <c r="G249" s="42"/>
+      <c r="H249" s="41"/>
+      <c r="I249" s="41"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="B250" s="51"/>
+      <c r="G250" s="46"/>
+      <c r="H250" s="45"/>
+      <c r="I250" s="45"/>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="43"/>
+      <c r="B251" s="58"/>
+      <c r="C251" s="57"/>
+      <c r="D251" s="43"/>
+      <c r="E251" s="43"/>
+      <c r="F251" s="43"/>
+      <c r="G251" s="42"/>
+      <c r="H251" s="41"/>
+      <c r="I251" s="41"/>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="B252" s="51"/>
+      <c r="C252" s="50"/>
+      <c r="G252" s="46"/>
+      <c r="H252" s="45"/>
+      <c r="I252" s="45"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="43"/>
+      <c r="B253" s="58"/>
+      <c r="C253" s="57"/>
+      <c r="D253" s="43"/>
+      <c r="E253" s="43"/>
+      <c r="F253" s="43"/>
+      <c r="G253" s="42"/>
+      <c r="H253" s="41"/>
+      <c r="I253" s="41"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="B254" s="51"/>
+      <c r="C254" s="50"/>
+      <c r="G254" s="46"/>
+      <c r="H254" s="45"/>
+      <c r="I254" s="45"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="43"/>
+      <c r="B255" s="58"/>
+      <c r="C255" s="57"/>
+      <c r="D255" s="43"/>
+      <c r="E255" s="43"/>
+      <c r="F255" s="43"/>
+      <c r="G255" s="42"/>
+      <c r="H255" s="41"/>
+      <c r="I255" s="41"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="B256" s="51"/>
+      <c r="C256" s="50"/>
+      <c r="G256" s="46"/>
+      <c r="H256" s="45"/>
+      <c r="I256" s="45"/>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="43"/>
+      <c r="B257" s="58"/>
+      <c r="C257" s="57"/>
+      <c r="D257" s="43"/>
+      <c r="E257" s="43"/>
+      <c r="F257" s="43"/>
+      <c r="G257" s="42"/>
+      <c r="H257" s="41"/>
+      <c r="I257" s="41"/>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="B258" s="51"/>
+      <c r="C258" s="50"/>
+      <c r="G258" s="46"/>
+      <c r="H258" s="45"/>
+      <c r="I258" s="45"/>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="43"/>
+      <c r="B259" s="58"/>
+      <c r="C259" s="43"/>
+      <c r="D259" s="43"/>
+      <c r="E259" s="43"/>
+      <c r="F259" s="43"/>
+      <c r="G259" s="42"/>
+      <c r="H259" s="41"/>
+      <c r="I259" s="41"/>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="B260" s="51"/>
+      <c r="G260" s="46"/>
+      <c r="H260" s="45"/>
+      <c r="I260" s="45"/>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="43"/>
+      <c r="B261" s="58"/>
+      <c r="C261" s="43"/>
+      <c r="D261" s="43"/>
+      <c r="E261" s="43"/>
+      <c r="F261" s="43"/>
+      <c r="G261" s="42"/>
+      <c r="H261" s="41"/>
+      <c r="I261" s="41"/>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="B262" s="51"/>
+      <c r="G262" s="46"/>
+      <c r="H262" s="45"/>
+      <c r="I262" s="45"/>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="43"/>
+      <c r="B263" s="58"/>
+      <c r="C263" s="43"/>
+      <c r="D263" s="43"/>
+      <c r="E263" s="43"/>
+      <c r="F263" s="43"/>
+      <c r="G263" s="42"/>
+      <c r="H263" s="41"/>
+      <c r="I263" s="41"/>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="B264" s="51"/>
+      <c r="G264" s="46"/>
+      <c r="H264" s="45"/>
+      <c r="I264" s="45"/>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="43"/>
+      <c r="B265" s="58"/>
+      <c r="C265" s="57"/>
+      <c r="D265" s="43"/>
+      <c r="E265" s="43"/>
+      <c r="F265" s="43"/>
+      <c r="G265" s="42"/>
+      <c r="H265" s="41"/>
+      <c r="I265" s="41"/>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="B266" s="51"/>
+      <c r="C266" s="50"/>
+      <c r="G266" s="46"/>
+      <c r="H266" s="45"/>
+      <c r="I266" s="45"/>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="43"/>
+      <c r="B267" s="58"/>
+      <c r="C267" s="57"/>
+      <c r="D267" s="43"/>
+      <c r="E267" s="43"/>
+      <c r="F267" s="43"/>
+      <c r="G267" s="42"/>
+      <c r="H267" s="41"/>
+      <c r="I267" s="41"/>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="B268" s="51"/>
+      <c r="C268" s="50"/>
+      <c r="G268" s="46"/>
+      <c r="H268" s="45"/>
+      <c r="I268" s="45"/>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="43"/>
+      <c r="B269" s="58"/>
+      <c r="C269" s="43"/>
+      <c r="D269" s="43"/>
+      <c r="E269" s="43"/>
+      <c r="F269" s="43"/>
+      <c r="G269" s="42"/>
+      <c r="H269" s="41"/>
+      <c r="I269" s="41"/>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="B270" s="51"/>
+      <c r="G270" s="46"/>
+      <c r="H270" s="45"/>
+      <c r="I270" s="45"/>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="43"/>
+      <c r="B271" s="58"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="43"/>
+      <c r="E271" s="43"/>
+      <c r="F271" s="43"/>
+      <c r="G271" s="42"/>
+      <c r="H271" s="41"/>
+      <c r="I271" s="41"/>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="B272" s="51"/>
+      <c r="G272" s="46"/>
+      <c r="H272" s="45"/>
+      <c r="I272" s="45"/>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="43"/>
+      <c r="B273" s="58"/>
+      <c r="C273" s="43"/>
+      <c r="D273" s="43"/>
+      <c r="E273" s="43"/>
+      <c r="F273" s="43"/>
+      <c r="G273" s="42"/>
+      <c r="H273" s="41"/>
+      <c r="I273" s="41"/>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="B274" s="51"/>
+      <c r="G274" s="46"/>
+      <c r="H274" s="45"/>
+      <c r="I274" s="45"/>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="43"/>
+      <c r="B275" s="58"/>
+      <c r="C275" s="43"/>
+      <c r="D275" s="43"/>
+      <c r="E275" s="43"/>
+      <c r="F275" s="43"/>
+      <c r="G275" s="42"/>
+      <c r="H275" s="41"/>
+      <c r="I275" s="41"/>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="B276" s="51"/>
+      <c r="G276" s="46"/>
+      <c r="H276" s="45"/>
+      <c r="I276" s="45"/>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="43"/>
+      <c r="B277" s="58"/>
+      <c r="C277" s="57"/>
+      <c r="D277" s="43"/>
+      <c r="E277" s="43"/>
+      <c r="F277" s="43"/>
+      <c r="G277" s="42"/>
+      <c r="H277" s="41"/>
+      <c r="I277" s="41"/>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="B278" s="51"/>
+      <c r="C278" s="50"/>
+      <c r="G278" s="46"/>
+      <c r="H278" s="45"/>
+      <c r="I278" s="45"/>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="54"/>
+      <c r="B279" s="56"/>
+      <c r="C279" s="55"/>
+      <c r="D279" s="54"/>
+      <c r="E279" s="54"/>
+      <c r="F279" s="54"/>
+      <c r="G279" s="53"/>
+      <c r="H279" s="52"/>
+      <c r="I279" s="52"/>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="B280" s="51"/>
+      <c r="C280" s="50"/>
+      <c r="G280" s="46"/>
+      <c r="H280" s="45"/>
+      <c r="I280" s="45"/>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="43">
+        <v>6</v>
+      </c>
+      <c r="B281" s="49"/>
+      <c r="C281" s="43"/>
+      <c r="D281" s="43"/>
+      <c r="E281" s="43"/>
+      <c r="F281" s="43"/>
+      <c r="G281" s="42"/>
+      <c r="H281" s="41"/>
+      <c r="I281" s="41"/>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="B282" s="48"/>
+      <c r="G282" s="46"/>
+      <c r="H282" s="45"/>
+      <c r="I282" s="45"/>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="43"/>
+      <c r="B283" s="44"/>
+      <c r="C283" s="43"/>
+      <c r="D283" s="43"/>
+      <c r="E283" s="43"/>
+      <c r="F283" s="43"/>
+      <c r="G283" s="42"/>
+      <c r="H283" s="41"/>
+      <c r="I283" s="41"/>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="B284" s="47"/>
+      <c r="G284" s="46"/>
+      <c r="H284" s="45"/>
+      <c r="I284" s="45"/>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="43"/>
+      <c r="B285" s="44"/>
+      <c r="C285" s="43"/>
+      <c r="D285" s="43"/>
+      <c r="E285" s="43"/>
+      <c r="F285" s="43"/>
+      <c r="G285" s="42"/>
+      <c r="H285" s="41"/>
+      <c r="I285" s="41"/>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="B286" s="47"/>
+      <c r="G286" s="46"/>
+      <c r="H286" s="45"/>
+      <c r="I286" s="45"/>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="43"/>
+      <c r="B287" s="44"/>
+      <c r="C287" s="43"/>
+      <c r="D287" s="43"/>
+      <c r="E287" s="43"/>
+      <c r="F287" s="43"/>
+      <c r="G287" s="42"/>
+      <c r="H287" s="41"/>
+      <c r="I287" s="41"/>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="B288" s="47"/>
+      <c r="G288" s="46"/>
+      <c r="H288" s="45"/>
+      <c r="I288" s="45"/>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="43"/>
+      <c r="B289" s="44"/>
+      <c r="C289" s="43"/>
+      <c r="D289" s="43"/>
+      <c r="E289" s="43"/>
+      <c r="F289" s="43"/>
+      <c r="G289" s="42"/>
+      <c r="H289" s="41"/>
+      <c r="I289" s="41"/>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="B290" s="47"/>
+      <c r="G290" s="46"/>
+      <c r="H290" s="45"/>
+      <c r="I290" s="45"/>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="43"/>
+      <c r="B291" s="44"/>
+      <c r="C291" s="43"/>
+      <c r="D291" s="43"/>
+      <c r="E291" s="43"/>
+      <c r="F291" s="43"/>
+      <c r="G291" s="42"/>
+      <c r="H291" s="41"/>
+      <c r="I291" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:J4"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="從儲存格 G5 開始，在欄 G 中輸入專案完成的百分比" sqref="F5:F6" xr:uid="{40963568-1736-4FDB-B6D8-E948488D5EE0}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
-    <col min="42" max="42" width="2.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="2.83203125" style="1"/>
+    <col min="42" max="42" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
@@ -1223,7 +6025,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
@@ -1253,35 +6055,35 @@
       <c r="S2" s="33"/>
       <c r="T2" s="32"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="38" t="s">
+      <c r="AI2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +6125,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1">
       <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1511,7 +6313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:67" ht="30" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:67" ht="30" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:67" ht="30" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:67" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:67" ht="30" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1575,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:67" ht="30" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:67" ht="30" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1611,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1623,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:67" ht="30" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:67" ht="30" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1647,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:67" ht="30" customHeight="1">
       <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="30" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1671,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
@@ -1695,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="30" customHeight="1">
       <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1707,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
@@ -1719,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
@@ -1731,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="30" customHeight="1">
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
@@ -1743,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
@@ -1755,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="30" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
@@ -1779,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
@@ -1791,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="30" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
@@ -1803,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="30" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
@@ -1827,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" ht="30" customHeight="1">
       <c r="B31" s="6" t="s">
         <v>40</v>
       </c>
@@ -1839,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="30" customHeight="1">
       <c r="B32" s="6" t="s">
         <v>41</v>
       </c>
@@ -1851,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="6" t="s">
         <v>42</v>
       </c>
@@ -1863,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="30" customHeight="1">
       <c r="B34" s="6" t="s">
         <v>43</v>
       </c>
@@ -1875,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="30" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>44</v>
       </c>
@@ -1887,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="6" t="s">
         <v>45</v>
       </c>
@@ -1899,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="30" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>46</v>
       </c>
@@ -1911,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="30" customHeight="1">
       <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
@@ -1923,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
@@ -1937,68 +6739,68 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
